--- a/biology/Zoologie/Cynomops_greenhalli/Cynomops_greenhalli.xlsx
+++ b/biology/Zoologie/Cynomops_greenhalli/Cynomops_greenhalli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cynomope de Greenhall
-Cynomops greenhalli, qui a pour nom commun Cynomope de Greenhall[1], est une espèce sud-américaine de chauves-souris de la famille des Molossidae.
+Cynomops greenhalli, qui a pour nom commun Cynomope de Greenhall, est une espèce sud-américaine de chauves-souris de la famille des Molossidae.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cynomops greenhalli a une longueur de tête et de corps entre 57 et 62 mm, une longueur d'avant-bras entre 33,4 et 38,2 mm, une longueur de queue entre 29 et 34 mm, une longueur de pied entre 8 et 10 mm, la longueur des oreilles entre 13 et 16 mm et une poids jusqu'à 20 g.
 La fourrure est courte et veloutée. Une zone densément couverte de poils plus foncés que les membranes alaires est présente entre le bout de l'avant-bras, le poignet et le quatrième doigt. Les parties dorsales sont brun foncé à noirâtre avec la base des poils plus pâle, tandis que les parties ventrales sont brunes le long des flancs et beaucoup plus pâles sur la gorge et au centre de la poitrine et de l'abdomen.
@@ -546,9 +560,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente en Colombie, au Venezuela, au Guyana, au Suriname, en Guyane, dans le nord de l'Équateur et du Pérou, dans le nord du Brésil et sur l'île de Trinidad[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente en Colombie, au Venezuela, au Guyana, au Suriname, en Guyane, dans le nord de l'Équateur et du Pérou, dans le nord du Brésil et sur l'île de Trinidad.
 Elle vit dans les forêts tropicales décidues et sempervirentes jusqu'à 1 500 mètres d'altitude.
 </t>
         </is>
@@ -580,12 +596,87 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Habitat
-La chauve-souris habite en des groupes de 75 individus maximum à l'intérieur des creux d'arbres ou de bâtiments. Mâles et femelles restent ensemble toute l'année.
-Alimentation
-L'activité prédatrice commence généralement peu après le coucher du soleil. Elle se nourrit d'insectes volants capturés au-dessus des plans d'eau.
-Reproduction
-Des femelles gestantes et allaitantes ont été capturées sur l'île de Trinidad en juillet.
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chauve-souris habite en des groupes de 75 individus maximum à l'intérieur des creux d'arbres ou de bâtiments. Mâles et femelles restent ensemble toute l'année.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cynomops_greenhalli</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cynomops_greenhalli</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'activité prédatrice commence généralement peu après le coucher du soleil. Elle se nourrit d'insectes volants capturés au-dessus des plans d'eau.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cynomops_greenhalli</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cynomops_greenhalli</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des femelles gestantes et allaitantes ont été capturées sur l'île de Trinidad en juillet.
 </t>
         </is>
       </c>
